--- a/2sem/labs/2.5.1/data.xlsx
+++ b/2sem/labs/2.5.1/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mipt_edu\2sem\labs\2.5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75141576-501C-4FCF-9D78-7A6473DC8B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75053E69-E263-42B7-BFF9-51805E43601D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="42" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="42" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -480,7 +482,7 @@
         <v>0.05</v>
       </c>
       <c r="H3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -681,6 +683,50 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{0917E53A-92EC-4790-B41B-904D7A2926F8}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'L1'!K16:K16</xm:f>
+              <xm:sqref>L16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K17:K17</xm:f>
+              <xm:sqref>L17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K18:K18</xm:f>
+              <xm:sqref>L18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K19:K19</xm:f>
+              <xm:sqref>L19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K20:K20</xm:f>
+              <xm:sqref>L20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K21:K21</xm:f>
+              <xm:sqref>L21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K22:K22</xm:f>
+              <xm:sqref>L22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K23:K23</xm:f>
+              <xm:sqref>L23</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{43974476-1B6E-4F7D-8FD1-3F387B7B97D3}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -725,50 +771,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{0917E53A-92EC-4790-B41B-904D7A2926F8}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'L1'!K16:K16</xm:f>
-              <xm:sqref>L16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K17:K17</xm:f>
-              <xm:sqref>L17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K18:K18</xm:f>
-              <xm:sqref>L18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K19:K19</xm:f>
-              <xm:sqref>L19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K20:K20</xm:f>
-              <xm:sqref>L20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K21:K21</xm:f>
-              <xm:sqref>L21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K22:K22</xm:f>
-              <xm:sqref>L22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K23:K23</xm:f>
-              <xm:sqref>L23</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
